--- a/2022/Price List/Symphony Price List  21.05.2022.xlsx
+++ b/2022/Price List/Symphony Price List  21.05.2022.xlsx
@@ -382,7 +382,7 @@
     <t>3/32GB</t>
   </si>
   <si>
-    <t>Symphony Mobile Price List(21.05.2022)</t>
+    <t>Symphony Mobile Price List(29.05.2022)</t>
   </si>
 </sst>
 </file>
@@ -3006,8 +3006,8 @@
   <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
+      <pane ySplit="3" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>

--- a/2022/Price List/Symphony Price List  21.05.2022.xlsx
+++ b/2022/Price List/Symphony Price List  21.05.2022.xlsx
@@ -382,7 +382,7 @@
     <t>3/32GB</t>
   </si>
   <si>
-    <t>Symphony Mobile Price List(29.05.2022)</t>
+    <t>Symphony Mobile Price List(31.05.2022)</t>
   </si>
 </sst>
 </file>
@@ -3006,8 +3006,8 @@
   <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L39" sqref="L39"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -3141,10 +3141,10 @@
         <v>84</v>
       </c>
       <c r="B7" s="8">
-        <v>980</v>
+        <v>950</v>
       </c>
       <c r="C7" s="8">
-        <v>1070</v>
+        <v>1050</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>19</v>
@@ -3187,10 +3187,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="10">
-        <v>1100</v>
+        <v>1030</v>
       </c>
       <c r="C9" s="10">
-        <v>1190</v>
+        <v>1130</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>19</v>
@@ -3348,10 +3348,10 @@
         <v>88</v>
       </c>
       <c r="B16" s="10">
-        <v>1190</v>
+        <v>1150</v>
       </c>
       <c r="C16" s="10">
-        <v>1280</v>
+        <v>1250</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>24</v>
@@ -3371,10 +3371,10 @@
         <v>89</v>
       </c>
       <c r="B17" s="10">
-        <v>1200</v>
+        <v>1150</v>
       </c>
       <c r="C17" s="10">
-        <v>1290</v>
+        <v>1250</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>24</v>

--- a/2022/Price List/Symphony Price List  21.05.2022.xlsx
+++ b/2022/Price List/Symphony Price List  21.05.2022.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Updated" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Updated!$A$3:$I$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Updated!$A$3:$I$49</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="125">
   <si>
     <t>Model Name</t>
   </si>
@@ -382,7 +382,16 @@
     <t>3/32GB</t>
   </si>
   <si>
-    <t>Symphony Mobile Price List(31.05.2022)</t>
+    <t>Symphony Mobile Price List(01.06.2022)</t>
+  </si>
+  <si>
+    <t>L145</t>
+  </si>
+  <si>
+    <t>2900mAh</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -572,7 +581,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -605,22 +614,10 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -640,6 +637,21 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -689,13 +701,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>371476</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>230150</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>250527</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -713,7 +725,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="371476" y="12372975"/>
+          <a:off x="371476" y="12592050"/>
           <a:ext cx="5573674" cy="231477"/>
           <a:chOff x="253" y="249"/>
           <a:chExt cx="230" cy="258"/>
@@ -3003,11 +3015,11 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:H57"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
+      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -3018,31 +3030,31 @@
     <col min="4" max="4" width="13.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="40.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="35.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -3068,7 +3080,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="10">
@@ -3091,30 +3103,30 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="11">
-        <v>960</v>
-      </c>
-      <c r="C5" s="11">
-        <v>1030</v>
-      </c>
-      <c r="D5" s="7" t="s">
+      <c r="B5" s="15">
+        <v>1010</v>
+      </c>
+      <c r="C5" s="15">
+        <v>1070</v>
+      </c>
+      <c r="D5" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="17">
         <v>0</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="16" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="5">
@@ -3137,191 +3149,191 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="8">
-        <v>950</v>
-      </c>
-      <c r="C7" s="8">
-        <v>1050</v>
-      </c>
-      <c r="D7" s="7" t="s">
+      <c r="B7" s="20">
+        <v>1000</v>
+      </c>
+      <c r="C7" s="20">
+        <v>1070</v>
+      </c>
+      <c r="D7" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="17">
         <v>0</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="16" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="15">
+        <v>1180</v>
+      </c>
+      <c r="C8" s="15">
+        <v>1250</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="17">
+        <v>0</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="15">
         <v>1100</v>
       </c>
-      <c r="C8" s="10">
-        <v>1190</v>
-      </c>
-      <c r="D8" s="4" t="s">
+      <c r="C9" s="15">
+        <v>1170</v>
+      </c>
+      <c r="D9" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="6">
+      <c r="E9" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="17">
         <v>0</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G9" s="16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="10">
-        <v>1030</v>
-      </c>
-      <c r="C9" s="10">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" s="15">
         <v>1130</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="C10" s="15">
+        <v>1200</v>
+      </c>
+      <c r="D10" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E10" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F10" s="17">
         <v>0</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G10" s="16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="B10" s="10">
-        <v>1060</v>
-      </c>
-      <c r="C10" s="10">
-        <v>1150</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="6">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="15">
+        <v>1240</v>
+      </c>
+      <c r="C11" s="15">
+        <v>1320</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="17">
         <v>0</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G11" s="16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="10">
-        <v>1200</v>
-      </c>
-      <c r="C11" s="10">
-        <v>1290</v>
-      </c>
-      <c r="D11" s="4" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="15">
+        <v>1270</v>
+      </c>
+      <c r="C12" s="15">
+        <v>1350</v>
+      </c>
+      <c r="D12" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E12" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="17">
+        <v>0</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13" s="15">
+        <v>1270</v>
+      </c>
+      <c r="C13" s="15">
+        <v>1350</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="17">
+        <v>0</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" s="15">
+        <v>1500</v>
+      </c>
+      <c r="C14" s="15">
+        <v>1600</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F14" s="17">
         <v>0</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="10">
-        <v>1200</v>
-      </c>
-      <c r="C12" s="10">
-        <v>1290</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="6">
-        <v>0</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="B13" s="10">
-        <v>1250</v>
-      </c>
-      <c r="C13" s="10">
-        <v>1350</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="6">
-        <v>0</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="B14" s="10">
-        <v>1460</v>
-      </c>
-      <c r="C14" s="10">
-        <v>1570</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="6">
-        <v>0</v>
-      </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="16" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="12" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="10">
@@ -3344,76 +3356,76 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="B16" s="10">
-        <v>1150</v>
-      </c>
-      <c r="C16" s="10">
-        <v>1250</v>
-      </c>
-      <c r="D16" s="4" t="s">
+      <c r="B16" s="15">
+        <v>1190</v>
+      </c>
+      <c r="C16" s="15">
+        <v>1260</v>
+      </c>
+      <c r="D16" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="17">
         <v>0</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="16" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="B17" s="10">
-        <v>1150</v>
-      </c>
-      <c r="C17" s="10">
-        <v>1250</v>
-      </c>
-      <c r="D17" s="4" t="s">
+      <c r="B17" s="15">
+        <v>1190</v>
+      </c>
+      <c r="C17" s="15">
+        <v>1260</v>
+      </c>
+      <c r="D17" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="17">
         <v>0</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="16" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="13">
-        <v>1140</v>
-      </c>
-      <c r="C18" s="13">
-        <v>1220</v>
-      </c>
-      <c r="D18" s="12" t="s">
+      <c r="B18" s="22">
+        <v>1200</v>
+      </c>
+      <c r="C18" s="22">
+        <v>1270</v>
+      </c>
+      <c r="D18" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="17">
         <v>0</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="G18" s="23" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="12" t="s">
         <v>11</v>
       </c>
       <c r="B19" s="10">
@@ -3436,30 +3448,30 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="B20" s="5">
-        <v>1260</v>
-      </c>
-      <c r="C20" s="5">
-        <v>1350</v>
-      </c>
-      <c r="D20" s="4" t="s">
+      <c r="B20" s="20">
+        <v>1310</v>
+      </c>
+      <c r="C20" s="20">
+        <v>1390</v>
+      </c>
+      <c r="D20" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="17">
         <v>0</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="G20" s="16" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="12" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="10">
@@ -3482,30 +3494,30 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="B22" s="10">
-        <v>1250</v>
-      </c>
-      <c r="C22" s="10">
-        <v>1350</v>
-      </c>
-      <c r="D22" s="4" t="s">
+      <c r="B22" s="15">
+        <v>1290</v>
+      </c>
+      <c r="C22" s="15">
+        <v>1370</v>
+      </c>
+      <c r="D22" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="17">
         <v>0</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="G22" s="16" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="12" t="s">
         <v>96</v>
       </c>
       <c r="B23" s="10">
@@ -3528,7 +3540,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B24" s="10">
@@ -3551,30 +3563,30 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="B25" s="10">
-        <v>1250</v>
-      </c>
-      <c r="C25" s="10">
-        <v>1340</v>
-      </c>
-      <c r="D25" s="4" t="s">
+      <c r="B25" s="15">
+        <v>1290</v>
+      </c>
+      <c r="C25" s="15">
+        <v>1370</v>
+      </c>
+      <c r="D25" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="17">
         <v>0</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="G25" s="16" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B26" s="10">
@@ -3597,428 +3609,428 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="B27" s="10">
-        <v>1300</v>
-      </c>
-      <c r="C27" s="10">
-        <v>1399</v>
-      </c>
-      <c r="D27" s="4" t="s">
+      <c r="B27" s="15">
+        <v>1320</v>
+      </c>
+      <c r="C27" s="15">
+        <v>1400</v>
+      </c>
+      <c r="D27" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27" s="17">
         <v>0</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="G27" s="16" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B28" s="10">
+      <c r="B28" s="15">
+        <v>1410</v>
+      </c>
+      <c r="C28" s="15">
+        <v>1499</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28" s="17">
+        <v>0</v>
+      </c>
+      <c r="G28" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="B29" s="15">
+        <v>1460</v>
+      </c>
+      <c r="C29" s="15">
+        <v>1550</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="G29" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="B30" s="15">
+        <v>1460</v>
+      </c>
+      <c r="C30" s="15">
+        <v>1550</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F30" s="17">
+        <v>0</v>
+      </c>
+      <c r="G30" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="B31" s="15">
+        <v>1490</v>
+      </c>
+      <c r="C31" s="15">
+        <v>1580</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F31" s="17">
+        <v>0</v>
+      </c>
+      <c r="G31" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B32" s="15">
+        <v>1470</v>
+      </c>
+      <c r="C32" s="15">
+        <v>1570</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F32" s="17">
+        <v>0</v>
+      </c>
+      <c r="G32" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" s="15">
         <v>1340</v>
       </c>
-      <c r="C28" s="10">
-        <v>1430</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F28" s="6">
+      <c r="C33" s="15">
+        <v>1420</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F33" s="17">
         <v>0</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="G33" s="16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="B29" s="10">
-        <v>1370</v>
-      </c>
-      <c r="C29" s="10">
-        <v>1470</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F29" s="6">
-        <v>0</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="B30" s="10">
-        <v>1440</v>
-      </c>
-      <c r="C30" s="10">
-        <v>1540</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F30" s="6">
-        <v>0</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="B31" s="10">
-        <v>1430</v>
-      </c>
-      <c r="C31" s="10">
-        <v>1540</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F31" s="6">
-        <v>0</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B32" s="10">
-        <v>1330</v>
-      </c>
-      <c r="C32" s="10">
-        <v>1420</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F32" s="6">
-        <v>0</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="15" t="s">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B34" s="5">
         <v>7430</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C34" s="5">
         <v>7990</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D34" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="E34" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F33" s="6" t="s">
+      <c r="F34" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="G34" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="16" t="s">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B34" s="8">
+      <c r="B35" s="8">
         <v>7390</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C35" s="8">
         <v>7890</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D35" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E34" s="9" t="s">
+      <c r="E35" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F34" s="9" t="s">
+      <c r="F35" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="G35" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="15" t="s">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="B35" s="10">
+      <c r="B36" s="10">
         <v>4840</v>
       </c>
-      <c r="C35" s="10">
+      <c r="C36" s="10">
         <v>5190</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D36" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="E36" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F35" s="6" t="s">
+      <c r="F36" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="G35" s="4" t="s">
+      <c r="G36" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="18" t="s">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="B36" s="19">
+      <c r="B37" s="11">
         <v>5650</v>
-      </c>
-      <c r="C36" s="19">
-        <v>5990</v>
-      </c>
-      <c r="D36" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="E36" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="F36" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="G36" s="20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="B37" s="11">
-        <v>5600</v>
       </c>
       <c r="C37" s="11">
         <v>5990</v>
       </c>
       <c r="D37" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B38" s="11">
+        <v>5600</v>
+      </c>
+      <c r="C38" s="11">
+        <v>5990</v>
+      </c>
+      <c r="D38" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E37" s="9" t="s">
+      <c r="E38" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F37" s="9" t="s">
+      <c r="F38" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="G37" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="15" t="s">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="B38" s="10">
+      <c r="B39" s="11">
         <v>6500</v>
       </c>
-      <c r="C38" s="10">
+      <c r="C39" s="11">
         <v>6990</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D39" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="E39" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F38" s="6" t="s">
+      <c r="F39" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="G38" s="4" t="s">
+      <c r="G39" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="18" t="s">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="B39" s="19">
+      <c r="B40" s="11">
         <v>6400</v>
       </c>
-      <c r="C39" s="19">
+      <c r="C40" s="11">
         <v>6790</v>
       </c>
-      <c r="D39" s="20" t="s">
+      <c r="D40" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E39" s="21" t="s">
+      <c r="E40" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="F39" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="G39" s="20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="B40" s="11">
-        <v>6890</v>
-      </c>
-      <c r="C40" s="11">
-        <v>7299</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>76</v>
       </c>
       <c r="F40" s="9" t="s">
         <v>61</v>
       </c>
       <c r="G40" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B41" s="11">
+        <v>6890</v>
+      </c>
+      <c r="C41" s="11">
+        <v>7299</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G41" s="7" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="15" t="s">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="B41" s="10">
+      <c r="B42" s="11">
         <v>6570</v>
       </c>
-      <c r="C41" s="10">
+      <c r="C42" s="11">
         <v>6990</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D42" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="E42" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F41" s="6" t="s">
+      <c r="F42" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="G41" s="4" t="s">
+      <c r="G42" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="15" t="s">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="B42" s="10">
+      <c r="B43" s="10">
         <v>3640</v>
       </c>
-      <c r="C42" s="10">
+      <c r="C43" s="10">
         <v>3890</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D43" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="E43" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F42" s="6" t="s">
+      <c r="F43" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="G42" s="4" t="s">
+      <c r="G43" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="15" t="s">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="B43" s="10">
+      <c r="B44" s="10">
         <v>6100</v>
       </c>
-      <c r="C43" s="10">
+      <c r="C44" s="10">
         <v>6490</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D44" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E43" s="6" t="s">
+      <c r="E44" s="6" t="s">
         <v>70</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="B44" s="10">
-        <v>7430</v>
-      </c>
-      <c r="C44" s="10">
-        <v>7990</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>40</v>
       </c>
       <c r="F44" s="6" t="s">
         <v>61</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="15" t="s">
-        <v>103</v>
+      <c r="A45" s="12" t="s">
+        <v>102</v>
       </c>
       <c r="B45" s="10">
-        <v>9300</v>
+        <v>7430</v>
       </c>
       <c r="C45" s="10">
-        <v>9790</v>
+        <v>7990</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>39</v>
@@ -4027,21 +4039,21 @@
         <v>40</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="15" t="s">
-        <v>104</v>
+      <c r="A46" s="12" t="s">
+        <v>103</v>
       </c>
       <c r="B46" s="10">
-        <v>10130</v>
+        <v>9300</v>
       </c>
       <c r="C46" s="10">
-        <v>10890</v>
+        <v>9790</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>39</v>
@@ -4050,21 +4062,21 @@
         <v>40</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="15" t="s">
-        <v>105</v>
+      <c r="A47" s="12" t="s">
+        <v>104</v>
       </c>
       <c r="B47" s="10">
-        <v>7700</v>
+        <v>10130</v>
       </c>
       <c r="C47" s="10">
-        <v>8190</v>
+        <v>10890</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>39</v>
@@ -4073,47 +4085,47 @@
         <v>40</v>
       </c>
       <c r="F47" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B48" s="10">
+        <v>7700</v>
+      </c>
+      <c r="C48" s="10">
+        <v>8190</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F48" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G47" s="4" t="s">
+      <c r="G48" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="15" t="s">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="B48" s="10">
+      <c r="B49" s="10">
         <v>7800</v>
       </c>
-      <c r="C48" s="10">
+      <c r="C49" s="10">
         <v>8390</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D49" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="B49" s="10">
-        <v>7980</v>
-      </c>
-      <c r="C49" s="10">
-        <v>8490</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>35</v>
@@ -4122,41 +4134,41 @@
         <v>65</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="15" t="s">
-        <v>108</v>
+      <c r="A50" s="12" t="s">
+        <v>107</v>
       </c>
       <c r="B50" s="10">
         <v>7980</v>
       </c>
       <c r="C50" s="10">
-        <v>8590</v>
+        <v>8490</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="G50" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="15" t="s">
-        <v>109</v>
+      <c r="A51" s="12" t="s">
+        <v>108</v>
       </c>
       <c r="B51" s="10">
-        <v>8490</v>
+        <v>7980</v>
       </c>
       <c r="C51" s="10">
-        <v>8990</v>
+        <v>8590</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>39</v>
@@ -4165,44 +4177,44 @@
         <v>40</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="15" t="s">
-        <v>110</v>
+      <c r="A52" s="12" t="s">
+        <v>109</v>
       </c>
       <c r="B52" s="10">
-        <v>9290</v>
+        <v>8490</v>
       </c>
       <c r="C52" s="10">
-        <v>9990</v>
+        <v>8990</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>119</v>
+        <v>40</v>
       </c>
       <c r="F52" s="6" t="s">
         <v>65</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="15" t="s">
-        <v>111</v>
+      <c r="A53" s="12" t="s">
+        <v>110</v>
       </c>
       <c r="B53" s="10">
-        <v>10230</v>
+        <v>9290</v>
       </c>
       <c r="C53" s="10">
-        <v>10990</v>
+        <v>9990</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>54</v>
@@ -4211,47 +4223,47 @@
         <v>119</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G53" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="15" t="s">
+      <c r="A54" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B54" s="10">
+        <v>10230</v>
+      </c>
+      <c r="C54" s="10">
+        <v>10990</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="B54" s="5">
+      <c r="B55" s="5">
         <v>9290</v>
       </c>
-      <c r="C54" s="5">
+      <c r="C55" s="5">
         <v>9990</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="D55" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="E54" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F54" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="B55" s="10">
-        <v>9050</v>
-      </c>
-      <c r="C55" s="10">
-        <v>9599</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="E55" s="6" t="s">
         <v>40</v>
@@ -4260,18 +4272,18 @@
         <v>65</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="15" t="s">
-        <v>72</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="12" t="s">
+        <v>78</v>
       </c>
       <c r="B56" s="10">
-        <v>9580</v>
+        <v>9050</v>
       </c>
       <c r="C56" s="10">
-        <v>10190</v>
+        <v>9599</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>39</v>
@@ -4280,40 +4292,63 @@
         <v>40</v>
       </c>
       <c r="F56" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B57" s="10">
+        <v>9580</v>
+      </c>
+      <c r="C57" s="10">
+        <v>10190</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F57" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G56" s="4" t="s">
+      <c r="G57" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="26" t="s">
+    <row r="58" spans="1:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="B57" s="27"/>
-      <c r="C57" s="28"/>
-      <c r="D57" s="29" t="s">
+      <c r="B58" s="28"/>
+      <c r="C58" s="29"/>
+      <c r="D58" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="E57" s="30"/>
-      <c r="F57" s="31"/>
-      <c r="G57" s="23" t="s">
+      <c r="E58" s="31"/>
+      <c r="F58" s="32"/>
+      <c r="G58" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="H57" s="22"/>
+      <c r="H58" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="D58:F58"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0.25" bottom="0" header="0" footer="0"/>
   <pageSetup scale="77" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A57" numberStoredAsText="1"/>
+    <ignoredError sqref="A58" numberStoredAsText="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
